--- a/main/static/tpl/ProformaInvoice.xlsx
+++ b/main/static/tpl/ProformaInvoice.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_8CDF03F74E7642D3C29A06DFBADA9448F4709855" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89088230-FF59-41E7-9920-2C22E03EAB8F}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_8CDF03F74E7642D3C29A06DFBADA9448F4709855" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E25BEA1F-C63C-443E-A5F9-C5B871F07EEE}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="15480" windowHeight="7830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t xml:space="preserve">PROFORMA INVOICE </t>
     <phoneticPr fontId="3"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>UNIT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>TOTAL</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -209,6 +205,10 @@
   </si>
   <si>
     <t>TOTAL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UNIT</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -833,6 +833,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -842,19 +860,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -864,15 +876,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,9 +900,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1368,9 +1368,7 @@
   </sheetPr>
   <dimension ref="B1:O101"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
-    </sheetView>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -1387,34 +1385,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18" customHeight="1">
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="2:9" ht="18" customHeight="1">
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1">
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1">
       <c r="B4" s="2"/>
@@ -1434,47 +1432,47 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1">
       <c r="B10" s="6" t="s">
@@ -1483,19 +1481,19 @@
       <c r="C10" s="6"/>
       <c r="D10" s="97"/>
       <c r="E10" s="97"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1506,10 +1504,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1522,12 +1520,12 @@
         <v>8</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="5"/>
       <c r="I13" s="17"/>
     </row>
@@ -1536,11 +1534,11 @@
         <v>9</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1">
@@ -1548,21 +1546,21 @@
         <v>10</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1"/>
     <row r="17" spans="2:9" ht="18" customHeight="1">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
@@ -1575,10 +1573,10 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="44"/>
@@ -1592,12 +1590,8 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="15">
-        <v>1</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="44"/>
       <c r="I19" s="44">
         <f t="shared" si="0"/>
@@ -1826,18 +1820,18 @@
       </c>
     </row>
     <row r="37" spans="2:15" ht="18" customHeight="1">
-      <c r="B37" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
+      <c r="B37" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="7">
         <f>SUM(F18:F36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="43">
@@ -1856,16 +1850,16 @@
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="2:15" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="B39" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
+      <c r="B39" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
     </row>
     <row r="40" spans="2:15" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="H40" s="19">
@@ -1874,67 +1868,67 @@
     </row>
     <row r="41" spans="2:15" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="C41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
       <c r="L41" s="11"/>
       <c r="N41" s="10"/>
     </row>
     <row r="42" spans="2:15" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="C42" s="12"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
       <c r="L42" s="12"/>
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="2:15" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="C43" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
+        <v>19</v>
+      </c>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
       <c r="L43" s="12"/>
       <c r="N43" s="13"/>
     </row>
     <row r="44" spans="2:15" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="C44" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
+        <v>19</v>
+      </c>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
       <c r="L44" s="12"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
     </row>
     <row r="45" spans="2:15" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="C45" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
+        <v>19</v>
+      </c>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
       <c r="L45" s="12"/>
       <c r="N45" s="10"/>
     </row>
@@ -1966,7 +1960,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -1978,7 +1972,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -1990,7 +1984,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="26"/>
       <c r="G51" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -2091,19 +2085,6 @@
     <row r="101" s="1" customFormat="1" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D8:I9"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="F10:H10"/>
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="B17:E17"/>
@@ -2113,6 +2094,19 @@
     <mergeCell ref="E43:H43"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B18:E18"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="D8:I9"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:I7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -2200,55 +2194,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18" customHeight="1">
-      <c r="B1" s="79">
+      <c r="B1" s="75">
         <f>Proforma!B1:I1</f>
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="2:9" ht="18" customHeight="1">
-      <c r="B2" s="80">
+      <c r="B2" s="76">
         <f>Proforma!B2:I2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1">
-      <c r="B3" s="80">
+      <c r="B3" s="76">
         <f>Proforma!B3:I3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1">
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:9" ht="18" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3"/>
       <c r="F5" s="4"/>
       <c r="H5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="24">
         <f>Proforma!I5</f>
@@ -2261,59 +2255,59 @@
         <v>INVOICE NO.:</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1">
       <c r="B7" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="77">
+      <c r="D7" s="79">
         <f>Proforma!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="78">
+      <c r="D8" s="74">
         <f>Proforma!D8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1">
       <c r="B11" s="14" t="str">
@@ -2327,11 +2321,11 @@
       </c>
       <c r="E11" s="98"/>
       <c r="F11" s="98"/>
-      <c r="G11" s="83" t="str">
+      <c r="G11" s="87" t="str">
         <f>Proforma!H11</f>
         <v>SAILING ON/ABOUT:</v>
       </c>
-      <c r="H11" s="83"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:9" ht="18" customHeight="1">
@@ -2352,7 +2346,7 @@
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1">
       <c r="B13" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="84"/>
@@ -2364,7 +2358,7 @@
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1">
       <c r="B14" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="84"/>
@@ -2390,21 +2384,21 @@
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1"/>
     <row r="17" spans="2:9" ht="18" customHeight="1">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="71" t="s">
         <v>33</v>
-      </c>
-      <c r="I17" s="71" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1">
@@ -2442,11 +2436,11 @@
       <c r="E19" s="6"/>
       <c r="F19" s="15">
         <f>Proforma!F19</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
         <f>Proforma!G19</f>
-        <v>UNIT</v>
+        <v>0</v>
       </c>
       <c r="H19" s="42">
         <f>Proforma!H19</f>
@@ -2883,18 +2877,18 @@
       </c>
     </row>
     <row r="37" spans="2:15" ht="18" customHeight="1">
-      <c r="B37" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
+      <c r="B37" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="21">
         <f>SUM(F18:F36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37" s="23" t="s">
         <v>4</v>
@@ -2916,7 +2910,7 @@
     </row>
     <row r="39" spans="2:15" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="B39" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="14"/>
     </row>
@@ -2968,10 +2962,10 @@
       </c>
     </row>
     <row r="48" spans="2:15" ht="18" customHeight="1">
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6">
         <f>Proforma!B1</f>
@@ -2981,25 +2975,25 @@
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="2:9" ht="18" customHeight="1">
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="2:9" ht="18" customHeight="1">
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -3117,6 +3111,13 @@
     <row r="101" s="1" customFormat="1" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
@@ -3128,13 +3129,6 @@
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D8:I9"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -3171,46 +3165,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" customHeight="1">
-      <c r="B1" s="79">
+      <c r="B1" s="75">
         <f>Proforma!B1:I1</f>
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="B2" s="80">
+      <c r="B2" s="76">
         <f>Proforma!B2:I2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1">
-      <c r="B3" s="80">
+      <c r="B3" s="76">
         <f>Proforma!B3:I3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1">
       <c r="B4" s="2"/>
@@ -3218,7 +3212,7 @@
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="3"/>
@@ -3239,13 +3233,13 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="85">
+      <c r="E6" s="83">
         <f>Invoice!D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="14">
         <f>Invoice!H6</f>
         <v>0</v>
@@ -3276,26 +3270,26 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="87">
+      <c r="E8" s="88">
         <f>Invoice!D8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1">
       <c r="B10" s="14"/>
@@ -3313,7 +3307,7 @@
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1">
       <c r="B11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -3337,11 +3331,11 @@
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="83" t="str">
+      <c r="H12" s="87" t="str">
         <f>Invoice!G11</f>
         <v>SAILING ON/ABOUT:</v>
       </c>
-      <c r="I12" s="83"/>
+      <c r="I12" s="87"/>
       <c r="J12" s="24">
         <f>Invoice!I11</f>
         <v>0</v>
@@ -3354,13 +3348,13 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="77">
+      <c r="E13" s="79">
         <f>Invoice!D12</f>
         <v>0</v>
       </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
       <c r="I13" s="25">
         <f>Invoice!H12</f>
         <v>0</v>
@@ -3377,15 +3371,15 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="77">
+      <c r="E14" s="79">
         <f>Invoice!D13</f>
         <v>0</v>
       </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1">
       <c r="B15" s="14"/>
@@ -3413,20 +3407,20 @@
     <row r="18" spans="2:10" ht="18" customHeight="1">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75" t="s">
+      <c r="D18" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="81"/>
+      <c r="I18" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="75"/>
-      <c r="I18" s="71" t="s">
+      <c r="J18" s="71" t="s">
         <v>42</v>
-      </c>
-      <c r="J18" s="71" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1">
@@ -3435,11 +3429,11 @@
         <v>0</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
       <c r="G19" s="22">
         <f>Invoice!F18</f>
         <v>0</v>
@@ -3462,11 +3456,11 @@
       <c r="F20" s="6"/>
       <c r="G20" s="15">
         <f>Invoice!F19</f>
-        <v>1</v>
-      </c>
-      <c r="H20" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
         <f>Invoice!G19</f>
-        <v>UNIT</v>
+        <v>0</v>
       </c>
       <c r="I20" s="53"/>
       <c r="J20" s="54"/>
@@ -3537,9 +3531,9 @@
         <v>0</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="15">
         <f>Invoice!F23</f>
         <v>0</v>
@@ -3559,12 +3553,12 @@
         <v>0</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="77">
+      <c r="D25" s="79">
         <f>Invoice!B24</f>
         <v>0</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="15">
         <f>Invoice!F24</f>
         <v>0</v>
@@ -3586,12 +3580,12 @@
         <v>0</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="77">
+      <c r="D26" s="79">
         <f>Invoice!B25</f>
         <v>0</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
       <c r="G26" s="15">
         <f>Invoice!F25</f>
         <v>0</v>
@@ -3609,12 +3603,12 @@
         <v>0</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="77">
+      <c r="D27" s="79">
         <f>Invoice!B26</f>
         <v>0</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
       <c r="G27" s="15">
         <f>Invoice!F26</f>
         <v>0</v>
@@ -3632,12 +3626,12 @@
         <v>0</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="77">
+      <c r="D28" s="79">
         <f>Invoice!B27</f>
         <v>0</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="15">
         <f>Invoice!F27</f>
         <v>0</v>
@@ -3655,12 +3649,12 @@
         <v>0</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="77">
+      <c r="D29" s="79">
         <f>Invoice!B28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="15">
         <f>Invoice!F28</f>
         <v>0</v>
@@ -3678,12 +3672,12 @@
         <v>0</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="77">
+      <c r="D30" s="79">
         <f>Invoice!B29</f>
         <v>0</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
       <c r="G30" s="15">
         <f>Invoice!F29</f>
         <v>0</v>
@@ -3701,12 +3695,12 @@
         <v>0</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="77">
+      <c r="D31" s="79">
         <f>Invoice!B30</f>
         <v>0</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
       <c r="G31" s="15">
         <f>Invoice!F30</f>
         <v>0</v>
@@ -3724,12 +3718,12 @@
         <v>0</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="77">
+      <c r="D32" s="79">
         <f>Invoice!B31</f>
         <v>0</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
       <c r="G32" s="15">
         <f>Invoice!F31</f>
         <v>0</v>
@@ -3747,12 +3741,12 @@
         <v>0</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="77">
+      <c r="D33" s="79">
         <f>Invoice!B32</f>
         <v>0</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
       <c r="G33" s="15">
         <f>Invoice!F32</f>
         <v>0</v>
@@ -3770,12 +3764,12 @@
         <v>0</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="77">
+      <c r="D34" s="79">
         <f>Invoice!B33</f>
         <v>0</v>
       </c>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
       <c r="G34" s="15">
         <f>Invoice!F33</f>
         <v>0</v>
@@ -3793,12 +3787,12 @@
         <v>0</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="77">
+      <c r="D35" s="79">
         <f>Invoice!B34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
       <c r="G35" s="15">
         <f>Invoice!F34</f>
         <v>0</v>
@@ -3816,12 +3810,12 @@
         <v>0</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="77">
+      <c r="D36" s="79">
         <f>Invoice!B35</f>
         <v>0</v>
       </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
       <c r="G36" s="15">
         <f>Invoice!F35</f>
         <v>0</v>
@@ -3839,9 +3833,9 @@
         <v>0</v>
       </c>
       <c r="C37" s="45"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
       <c r="G37" s="46">
         <f>Invoice!F36</f>
         <v>0</v>
@@ -3855,7 +3849,7 @@
     </row>
     <row r="38" spans="2:16" ht="18" customHeight="1">
       <c r="B38" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="49"/>
       <c r="D38" s="45"/>
@@ -3863,10 +3857,10 @@
       <c r="F38" s="45"/>
       <c r="G38" s="46">
         <f>SUM(G19:G37)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="46" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I38" s="51">
         <f>SUM(I20:I37)</f>
@@ -3955,11 +3949,11 @@
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="2:10" ht="18" customHeight="1">
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6">
         <f>Proforma!B1</f>
@@ -3969,22 +3963,22 @@
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="2:10" ht="18" customHeight="1">
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
     </row>
     <row r="51" spans="2:10" ht="18" customHeight="1">
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -4107,11 +4101,18 @@
     <row r="102" s="1" customFormat="1" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="E8:J9"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D28:F28"/>
@@ -4128,18 +4129,11 @@
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="E6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -4173,43 +4167,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18" customHeight="1">
-      <c r="B1" s="79">
+      <c r="B1" s="75">
         <f>Proforma!B1:I1</f>
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="2:9" ht="18" customHeight="1">
-      <c r="B2" s="80">
+      <c r="B2" s="76">
         <f>Proforma!B2:I2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1">
-      <c r="B3" s="80">
+      <c r="B3" s="76">
         <f>Proforma!B3:I3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1">
       <c r="B4" s="2"/>
@@ -4224,7 +4218,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="20"/>
       <c r="H5" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="24">
         <f>Proforma!I5</f>
@@ -4237,28 +4231,28 @@
         <v>INVOICE NO.:</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="85">
+      <c r="D6" s="83">
         <f>Invoice!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="2:9" customFormat="1" ht="18" customHeight="1">
       <c r="B7" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="77">
+      <c r="D7" s="79">
         <f>Proforma!B1</f>
         <v>0</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="2:9" customFormat="1" ht="18" customHeight="1">
       <c r="B8" s="6"/>
@@ -4320,25 +4314,25 @@
     <row r="13" spans="2:9" ht="18" customHeight="1">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="87">
+      <c r="D13" s="88">
         <f>Invoice!D8</f>
         <v>0</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1">
       <c r="B15" s="14"/>
@@ -4366,31 +4360,31 @@
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1">
       <c r="B17" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="84">
         <f>Invoice!D13</f>
         <v>0</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
     </row>
     <row r="18" spans="2:9" customFormat="1" ht="18" customHeight="1">
       <c r="B18" s="101" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="101"/>
-      <c r="D18" s="91">
+      <c r="D18" s="92">
         <f>Invoice!I11</f>
         <v>0</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:9" customFormat="1" ht="18" customHeight="1">
@@ -4425,21 +4419,21 @@
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1"/>
     <row r="22" spans="2:9" ht="18" customHeight="1">
-      <c r="B22" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
+      <c r="B22" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H22" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="73" t="s">
         <v>42</v>
-      </c>
-      <c r="I22" s="73" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="18" customHeight="1">
@@ -4471,11 +4465,11 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6">
         <f>'Packing list'!G20</f>
-        <v>1</v>
-      </c>
-      <c r="G24" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="G24" s="64">
         <f>'Packing list'!H20</f>
-        <v>UNIT</v>
+        <v>0</v>
       </c>
       <c r="H24" s="53"/>
       <c r="I24" s="54"/>
@@ -4804,13 +4798,13 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="2:14" ht="18" customHeight="1">
-      <c r="B42" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
+      <c r="B42" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
       <c r="G42" s="65" t="s">
         <v>54</v>
       </c>
@@ -4971,10 +4965,10 @@
       <c r="I54" s="14"/>
     </row>
     <row r="55" spans="2:15" ht="18" customHeight="1">
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
@@ -5083,13 +5077,6 @@
     <row r="106" s="1" customFormat="1" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D7:H7"/>
     <mergeCell ref="D13:I14"/>
     <mergeCell ref="D19:I19"/>
     <mergeCell ref="D20:I20"/>
@@ -5101,6 +5088,13 @@
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="D17:I17"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D7:H7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5120,46 +5114,46 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5">
-      <c r="A1" s="79">
+      <c r="A1" s="75">
         <f>Proforma!B1</f>
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="93">
+      <c r="A2" s="94">
         <f>Proforma!B2</f>
         <v>0</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
     </row>
     <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="94">
+      <c r="A3" s="95">
         <f>Proforma!B3</f>
         <v>0</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="6" spans="1:9" ht="16.5">
       <c r="G6" s="69" t="s">
@@ -5167,43 +5161,43 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="22.5">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
     </row>
     <row r="14" spans="1:9" ht="16.5">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
     </row>
     <row r="15" spans="1:9" ht="16.5">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="6" t="s">
